--- a/cotizaciones/comparacion-de-precios-en-excel.xlsx
+++ b/cotizaciones/comparacion-de-precios-en-excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edwinmarin/Downloads/MATRIZ  2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3271CAC8-C503-C34C-BD14-780F58A64C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="8_{3271CAC8-C503-C34C-BD14-780F58A64C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{181F08F8-B6B6-483B-BFE6-FEF0E9B1A2FC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="- AYUDA -" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>Ayuda</t>
   </si>
@@ -134,6 +134,66 @@
     <t>contado</t>
   </si>
   <si>
+    <t>Torre Admin</t>
+  </si>
+  <si>
+    <t>Monitor Admin</t>
+  </si>
+  <si>
+    <t>DiscoSloido admin</t>
+  </si>
+  <si>
+    <t>Disco duro Admin</t>
+  </si>
+  <si>
+    <t>Servidor Admin</t>
+  </si>
+  <si>
+    <t>RAM Admin</t>
+  </si>
+  <si>
+    <t>Teclado Admin</t>
+  </si>
+  <si>
+    <t>Mouse Admin</t>
+  </si>
+  <si>
+    <t>Portatil Nosotros</t>
+  </si>
+  <si>
+    <t>Monitor Nosotros</t>
+  </si>
+  <si>
+    <t>Disco Mecanico Nosotros</t>
+  </si>
+  <si>
+    <t>RAM Nosotros</t>
+  </si>
+  <si>
+    <t>Servidor Nosotros</t>
+  </si>
+  <si>
+    <t>Tarjeta de video nostros</t>
+  </si>
+  <si>
+    <t>Procesador Nosotros</t>
+  </si>
+  <si>
+    <t>Software Licencia</t>
+  </si>
+  <si>
+    <t>Licecia Visual</t>
+  </si>
+  <si>
+    <t>Licencia Sql</t>
+  </si>
+  <si>
+    <t>Window 11 Licencia</t>
+  </si>
+  <si>
+    <t>Contado</t>
+  </si>
+  <si>
     <t>Almendras</t>
   </si>
   <si>
@@ -186,11 +246,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -328,6 +389,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -896,7 +970,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1105,6 +1179,28 @@
     <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1125,6 +1221,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1144,849 +1249,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF66"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF66"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF66"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF66"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF66"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF66"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF66"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF66"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF66"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF66"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF66"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF66"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF66"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF66"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF66"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF66"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF66"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF66"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF66"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF66"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF8745EC"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF8745EC"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F3FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2050,6 +1312,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2165,6 +1428,39 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
         <color theme="1" tint="0.34998626667073579"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -2186,6 +1482,730 @@
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF8745EC"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8F3FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF66"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF66"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFF66"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF66"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF66"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF66"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFF66"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF66"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF66"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF66"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF8745EC"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2502,6 +2522,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2509,6 +2530,14 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2597,6 +2626,31 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2642,6 +2696,68 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF66"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF66"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFF66"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF66"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF66"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF66"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFF66"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF66"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF66"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF66"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3750,7 +3866,7 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls driveId="b!t0X_fAS9t0aJGI_ODXAXl-bashfV2JxFvPNEozz_Sw0HrFr_-_OtTLXID0635M_e" itemId="012BXKWLUZ4M7VBNY73ZCK7VIJNYVQESMO">
+    <xxl21:alternateUrls driveId="b!Hym7rwNJVEa9Ei2lSHX_0nOgT6ozGU1NpFXYHqK037U6gFRGePTxSpKj3vx4eZ8X" itemId="01ST4YSBIRBPN5ZNSMZRCKXHFRVCIU2PAP">
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
@@ -3777,7 +3893,26 @@
       <sheetName val="licencia SQL"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>Torre Gamer Rgb Amd Ryzen 5 5600g + 16gb + Ssd 240</v>
+          </cell>
+          <cell r="H8">
+            <v>1932489</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9">
+            <v>1714000</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="H10">
+            <v>1286880</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1">
         <row r="8">
           <cell r="D8" t="str">
@@ -3787,8 +3922,31 @@
             <v>851207</v>
           </cell>
         </row>
+        <row r="9">
+          <cell r="H9">
+            <v>646051</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="H10">
+            <v>999600</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="2">
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>Disco duro solido Patriot 240gb SATA III 2.5"</v>
+          </cell>
+          <cell r="H8">
+            <v>116501</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9">
+            <v>125140</v>
+          </cell>
+        </row>
         <row r="10">
           <cell r="H10">
             <v>362831</v>
@@ -3796,6 +3954,19 @@
         </row>
       </sheetData>
       <sheetData sheetId="3">
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>Disco duro interno Western Digital WD Black WD10SPSX 1TB</v>
+          </cell>
+          <cell r="H8">
+            <v>128520</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9">
+            <v>1404200</v>
+          </cell>
+        </row>
         <row r="10">
           <cell r="H10">
             <v>220000</v>
@@ -3811,6 +3982,16 @@
             <v>9996000</v>
           </cell>
         </row>
+        <row r="9">
+          <cell r="H9">
+            <v>12357344</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="H10">
+            <v>22218854</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="8">
@@ -3823,17 +4004,65 @@
             <v>474810</v>
           </cell>
         </row>
+        <row r="9">
+          <cell r="H9">
+            <v>196231</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="H10">
+            <v>148750</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="6">
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>TECLADO GAMER REDRAGON K622 HORUS TKL RGB SP-RED NEGRO</v>
+          </cell>
+          <cell r="H8">
+            <v>308210</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9">
+            <v>107100</v>
+          </cell>
+        </row>
         <row r="10">
           <cell r="H10">
             <v>654381</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="7">
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>Ratón con cable USB Botones 6D DPI de cuatro velocidades, Diseño ajustable de 6 botones, Adecuado para computadora MAC Computadora PC Computadora portátil Computadora de escritorio, Iluminación colorida RGB - Accesorios periféricos de computadora portátil Plug And Play</v>
+          </cell>
+          <cell r="H8">
+            <v>28322</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9">
+            <v>31357</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="H10">
+            <v>498610</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="9">
+        <row r="10">
+          <cell r="H10">
+            <v>1172150</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
@@ -3843,7 +4072,18 @@
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="19">
+        <row r="8">
+          <cell r="D8"/>
+          <cell r="H8"/>
+        </row>
+        <row r="9">
+          <cell r="H9"/>
+        </row>
+        <row r="10">
+          <cell r="H10"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
@@ -3851,40 +4091,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Comparación_precios2" displayName="Comparación_precios2" ref="B8:L26" totalsRowCount="1" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Comparación_precios2" displayName="Comparación_precios2" ref="B8:L26" totalsRowCount="1" headerRowDxfId="50" dataDxfId="49">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PRODUCTO" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PRODUCTO" totalsRowLabel="Total" dataDxfId="47" totalsRowDxfId="48">
       <calculatedColumnFormula>'[1]Monitor Admin'!$D$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CANTIDAD" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PROVEEDOR 1" totalsRowFunction="custom" totalsRowDxfId="47">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CANTIDAD" dataDxfId="45" totalsRowDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PROVEEDOR 1" totalsRowFunction="custom" totalsRowDxfId="44">
       <calculatedColumnFormula>'[1]Monitor Admin'!$H$8</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios2[[CANTIDAD]:[CANTIDAD]],Comparación_precios2[PROVEEDOR 1]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PROVEEDOR 2" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="45">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PROVEEDOR 2" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="43">
       <calculatedColumnFormula>'[1]Monitor Admin'!$H$9</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios2[[CANTIDAD]:[CANTIDAD]],Comparación_precios2[PROVEEDOR 2]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PROVEEDOR 3" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PROVEEDOR 3" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="41">
       <calculatedColumnFormula>'[1]Monitor Admin'!$H$10</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios2[[CANTIDAD]:[CANTIDAD]],Comparación_precios2[PROVEEDOR 3]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PROVEEDOR 4" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PROVEEDOR 4" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="39">
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios2[[CANTIDAD]:[CANTIDAD]],Comparación_precios2[PROVEEDOR 4]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PROVEEDOR 5" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PROVEEDOR 5" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="37">
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios2[[CANTIDAD]:[CANTIDAD]],Comparación_precios2[PROVEEDOR 5]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PROVEEDOR 6" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="37">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PROVEEDOR 6" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="35">
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios2[[CANTIDAD]:[CANTIDAD]],Comparación_precios2[PROVEEDOR 6]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="PRECIO MÁS BAJO" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="PRECIO MÁS BAJO" dataDxfId="32" totalsRowDxfId="33">
       <calculatedColumnFormula>MIN(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="PRECIO PROMEDIO" dataDxfId="34" totalsRowDxfId="33">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="PRECIO PROMEDIO" dataDxfId="30" totalsRowDxfId="31">
       <calculatedColumnFormula>IFERROR(AVERAGE(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="PRECIO MÁS ALTO" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="PRECIO MÁS ALTO" dataDxfId="28" totalsRowDxfId="29">
       <calculatedColumnFormula>MAX(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3893,40 +4133,40 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Comparación_precios24" displayName="Comparación_precios24" ref="B8:L25" totalsRowCount="1" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Comparación_precios24" displayName="Comparación_precios24" ref="B8:L30" totalsRowCount="1" headerRowDxfId="24" dataDxfId="23">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PRODUCTO" totalsRowLabel="Total" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PRODUCTO" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="22">
       <calculatedColumnFormula>'[1]Monitor Admin'!$D$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="CANTIDAD" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PROVEEDOR 1" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="CANTIDAD" dataDxfId="19" totalsRowDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PROVEEDOR 1" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="18">
       <calculatedColumnFormula>'[1]Monitor Nosotros'!$H$8*3</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 1]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="PROVEEDOR 2" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="PROVEEDOR 2" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="16">
       <calculatedColumnFormula>'[1]Portatil Nosotros'!$H$9*3</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 2]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="PROVEEDOR 3" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="PROVEEDOR 3" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="14">
       <calculatedColumnFormula>'[1]Monitor Nosotros'!$H$10 *3</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 3]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="PROVEEDOR 4" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="17">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="PROVEEDOR 4" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="12">
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 4]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="PROVEEDOR 5" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="PROVEEDOR 5" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="10">
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 5]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="PROVEEDOR 6" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="PROVEEDOR 6" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="8">
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 6]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="PRECIO MÁS BAJO" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="PRECIO MÁS BAJO" dataDxfId="5" totalsRowDxfId="6">
       <calculatedColumnFormula>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="PRECIO PROMEDIO" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="PRECIO PROMEDIO" dataDxfId="3" totalsRowDxfId="4">
       <calculatedColumnFormula>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="PRECIO MÁS ALTO" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="PRECIO MÁS ALTO" dataDxfId="1" totalsRowDxfId="2">
       <calculatedColumnFormula>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4223,19 +4463,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.96484375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.71875" style="18" customWidth="1"/>
-    <col min="2" max="11" width="22.25" style="18" customWidth="1"/>
-    <col min="12" max="16384" width="11.96484375" style="18"/>
+    <col min="1" max="1" width="4.6640625" style="18" customWidth="1"/>
+    <col min="2" max="11" width="22.1640625" style="18" customWidth="1"/>
+    <col min="12" max="16384" width="12" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:11" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.1">
+    <row r="1" spans="2:11" ht="9.9499999999999993" customHeight="1"/>
+    <row r="2" spans="2:11" customFormat="1" ht="54.95" customHeight="1">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -4247,8 +4487,8 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="24" customHeight="1"/>
+    <row r="4" spans="2:11" ht="42" customHeight="1">
       <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
@@ -4262,7 +4502,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:11" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4273,31 +4513,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.04296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.4296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.51953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.4765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.26171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.53125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.3046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.4296875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="24.77734375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.5625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.73046875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.26953125" style="1"/>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:14" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.1">
+    <row r="1" spans="2:14" ht="15" customHeight="1"/>
+    <row r="2" spans="2:14" customFormat="1" ht="54.95" customHeight="1">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -4310,15 +4550,15 @@
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
     </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:14" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" ht="15" customHeight="1"/>
+    <row r="4" spans="2:14" ht="15" customHeight="1"/>
+    <row r="5" spans="2:14" ht="29.25">
       <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="2:14" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="30" thickBot="1">
       <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
@@ -4335,14 +4575,14 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J7" s="76" t="s">
+    <row r="7" spans="2:14" ht="24.75" customHeight="1" thickBot="1">
+      <c r="J7" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="78"/>
-    </row>
-    <row r="8" spans="2:14" s="6" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="85"/>
+      <c r="L7" s="86"/>
+    </row>
+    <row r="8" spans="2:14" s="6" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
       <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
@@ -4377,43 +4617,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="59">
+    <row r="9" spans="2:14" s="7" customFormat="1" ht="18.75">
+      <c r="B9" s="59" t="str">
         <f>'[1]Torre admin'!$D$8</f>
-        <v>0</v>
+        <v>Torre Gamer Rgb Amd Ryzen 5 5600g + 16gb + Ssd 240</v>
       </c>
       <c r="C9" s="60">
         <v>1</v>
       </c>
       <c r="D9" s="42">
         <f>'[1]Torre admin'!$H$8</f>
-        <v>0</v>
+        <v>1932489</v>
       </c>
       <c r="E9" s="61">
         <f>'[1]Torre admin'!$H$9</f>
-        <v>0</v>
+        <v>1714000</v>
       </c>
       <c r="F9" s="61">
         <f>'[1]Torre admin'!$H$10</f>
-        <v>0</v>
+        <v>1286880</v>
       </c>
       <c r="G9" s="61"/>
       <c r="H9" s="61"/>
       <c r="I9" s="75"/>
       <c r="J9" s="62">
         <f>MIN(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>1286880</v>
       </c>
       <c r="K9" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
+        <v>1644456.3333333333</v>
       </c>
       <c r="L9" s="14">
         <f>MAX(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" s="7" customFormat="1" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1932489</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="7" customFormat="1" ht="69.75" thickBot="1">
       <c r="B10" s="57" t="str">
         <f>'[1]Monitor Admin'!$D$8</f>
         <v>Monitor Curvo 27 Fhd Diseño Sin Bordes Color Black 100V/240V</v>
@@ -4427,29 +4667,29 @@
       </c>
       <c r="E10" s="9">
         <f>'[1]Monitor Admin'!$H$9</f>
-        <v>0</v>
+        <v>646051</v>
       </c>
       <c r="F10" s="9">
         <f>'[1]Monitor Admin'!$H$10</f>
-        <v>0</v>
+        <v>999600</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="13">
         <f>MIN(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>646051</v>
       </c>
       <c r="K10" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>283735.66666666669</v>
+        <v>832286</v>
       </c>
       <c r="L10" s="14">
         <f>MAX(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>851207</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" s="7" customFormat="1" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>999600</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" s="7" customFormat="1" ht="69.75" thickBot="1">
       <c r="B11" s="57" t="str">
         <f>'[1]Monitor Admin'!$D$8</f>
         <v>Monitor Curvo 27 Fhd Diseño Sin Bordes Color Black 100V/240V</v>
@@ -4463,43 +4703,43 @@
       </c>
       <c r="E11" s="9">
         <f>'[1]Monitor Admin'!$H$9</f>
-        <v>0</v>
+        <v>646051</v>
       </c>
       <c r="F11" s="9">
         <f>'[1]Monitor Admin'!$H$10</f>
-        <v>0</v>
+        <v>999600</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="13">
         <f>MIN(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>646051</v>
       </c>
       <c r="K11" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>283735.66666666669</v>
+        <v>832286</v>
       </c>
       <c r="L11" s="14">
         <f>MAX(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>851207</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="57">
+        <v>999600</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" s="7" customFormat="1" ht="19.5" thickBot="1">
+      <c r="B12" s="57" t="str">
         <f>'[1]DiscoSolido Admin'!$D$8</f>
-        <v>0</v>
+        <v>Disco duro solido Patriot 240gb SATA III 2.5"</v>
       </c>
       <c r="C12" s="32">
         <v>1</v>
       </c>
       <c r="D12" s="9">
         <f>'[1]DiscoSolido Admin'!$H$8</f>
-        <v>0</v>
+        <v>116501</v>
       </c>
       <c r="E12" s="9">
         <f>'[1]DiscoSolido Admin'!$H$9</f>
-        <v>0</v>
+        <v>125140</v>
       </c>
       <c r="F12" s="9">
         <f>'[1]DiscoSolido Admin'!$H$10</f>
@@ -4510,32 +4750,32 @@
       <c r="I12" s="9"/>
       <c r="J12" s="13">
         <f>MIN(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>116501</v>
       </c>
       <c r="K12" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>120943.66666666667</v>
+        <v>201490.66666666666</v>
       </c>
       <c r="L12" s="14">
         <f>MAX(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
         <v>362831</v>
       </c>
     </row>
-    <row r="13" spans="2:14" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="57">
+    <row r="13" spans="2:14" s="7" customFormat="1" ht="19.5" thickBot="1">
+      <c r="B13" s="57" t="str">
         <f>'[1]Disco duro interno Admin'!$D$8</f>
-        <v>0</v>
+        <v>Disco duro interno Western Digital WD Black WD10SPSX 1TB</v>
       </c>
       <c r="C13" s="32">
         <v>1</v>
       </c>
       <c r="D13" s="9">
         <f>'[1]Disco duro interno Admin'!$H$8</f>
-        <v>0</v>
+        <v>128520</v>
       </c>
       <c r="E13" s="9">
         <f>'[1]Disco duro interno Admin'!$H$9</f>
-        <v>0</v>
+        <v>1404200</v>
       </c>
       <c r="F13" s="9">
         <f>'[1]Disco duro interno Admin'!$H$10</f>
@@ -4546,18 +4786,18 @@
       <c r="I13" s="9"/>
       <c r="J13" s="13">
         <f>MIN(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>128520</v>
       </c>
       <c r="K13" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>73333.333333333328</v>
+        <v>584240</v>
       </c>
       <c r="L13" s="14">
         <f>MAX(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" s="7" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1404200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" s="7" customFormat="1" ht="87" thickBot="1">
       <c r="B14" s="57" t="str">
         <f>'[1]Servidor Admin'!$D$8</f>
         <v>Poweredge T150 - Tower Server/ Intel Xeon E-2336g/16gb/2tb</v>
@@ -4571,29 +4811,29 @@
       </c>
       <c r="E14" s="9">
         <f>'[1]Servidor Admin'!$H$9</f>
-        <v>0</v>
+        <v>12357344</v>
       </c>
       <c r="F14" s="9">
         <f>'[1]Servidor Admin'!$H$10</f>
-        <v>0</v>
+        <v>22218854</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="13">
         <f>MIN(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>9996000</v>
       </c>
       <c r="K14" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>3332000</v>
+        <v>14857399.333333334</v>
       </c>
       <c r="L14" s="14">
         <f>MAX(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>9996000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" s="2" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+        <v>22218854</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" s="2" customFormat="1" ht="87" thickBot="1">
       <c r="B15" s="57" t="str">
         <f>'[1]ram Admin'!$D$8</f>
         <v>Memoria Ram Kingston Fury
@@ -4609,43 +4849,43 @@
       </c>
       <c r="E15" s="9">
         <f>'[1]ram Admin'!$H$9</f>
-        <v>0</v>
+        <v>196231</v>
       </c>
       <c r="F15" s="9">
         <f>'[1]ram Admin'!$H$10</f>
-        <v>0</v>
+        <v>148750</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="27">
         <f>MIN(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>148750</v>
       </c>
       <c r="K15" s="28">
         <f>IFERROR(AVERAGE(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>158270</v>
+        <v>273263.66666666669</v>
       </c>
       <c r="L15" s="29">
         <f>MAX(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
         <v>474810</v>
       </c>
     </row>
-    <row r="16" spans="2:14" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="58">
+    <row r="16" spans="2:14" s="2" customFormat="1" ht="19.5" thickBot="1">
+      <c r="B16" s="58" t="str">
         <f>'[1]Teclado Admin'!$D$8</f>
-        <v>0</v>
+        <v>TECLADO GAMER REDRAGON K622 HORUS TKL RGB SP-RED NEGRO</v>
       </c>
       <c r="C16" s="46">
         <v>1</v>
       </c>
       <c r="D16" s="45">
         <f>'[1]Teclado Admin'!$H$8</f>
-        <v>0</v>
+        <v>308210</v>
       </c>
       <c r="E16" s="45">
         <f>'[1]Teclado Admin'!$H$9</f>
-        <v>0</v>
+        <v>107100</v>
       </c>
       <c r="F16" s="45">
         <f>'[1]Teclado Admin'!$H$10</f>
@@ -4656,54 +4896,54 @@
       <c r="I16" s="45"/>
       <c r="J16" s="27">
         <f>MIN(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>107100</v>
       </c>
       <c r="K16" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>218127</v>
+        <v>356563.66666666669</v>
       </c>
       <c r="L16" s="14">
         <f>MAX(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
         <v>654381</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="58">
+    <row r="17" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1">
+      <c r="B17" s="58" t="str">
         <f>'[1]Mause Admin'!$D$8</f>
-        <v>0</v>
+        <v>Ratón con cable USB Botones 6D DPI de cuatro velocidades, Diseño ajustable de 6 botones, Adecuado para computadora MAC Computadora PC Computadora portátil Computadora de escritorio, Iluminación colorida RGB - Accesorios periféricos de computadora portátil Plug And Play</v>
       </c>
       <c r="C17" s="46">
         <v>1</v>
       </c>
       <c r="D17" s="45">
         <f>'[1]Mause Admin'!$H$8</f>
-        <v>0</v>
+        <v>28322</v>
       </c>
       <c r="E17" s="45">
         <f>'[1]Mause Admin'!$H$9</f>
-        <v>0</v>
+        <v>31357</v>
       </c>
       <c r="F17" s="45">
         <f>'[1]Mause Admin'!$H$10</f>
-        <v>0</v>
+        <v>498610</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
       <c r="I17" s="45"/>
       <c r="J17" s="27">
         <f>MIN(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>28322</v>
       </c>
       <c r="K17" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
+        <v>186096.33333333334</v>
       </c>
       <c r="L17" s="14">
         <f>MAX(Comparación_precios2[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>498610</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="B18" s="58">
         <f>'[1]windows 11 licencia'!$D$8</f>
         <v>0</v>
@@ -4739,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="B19" s="42"/>
       <c r="C19" s="43"/>
       <c r="D19" s="44"/>
@@ -4761,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="B20" s="42"/>
       <c r="C20" s="43"/>
       <c r="D20" s="44"/>
@@ -4783,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="B21" s="42"/>
       <c r="C21" s="43"/>
       <c r="D21" s="44"/>
@@ -4805,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="B22" s="42"/>
       <c r="C22" s="43"/>
       <c r="D22" s="44"/>
@@ -4827,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="B23" s="42"/>
       <c r="C23" s="43"/>
       <c r="D23" s="44"/>
@@ -4849,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="B24" s="42"/>
       <c r="C24" s="43"/>
       <c r="D24" s="44"/>
@@ -4871,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="B25" s="42"/>
       <c r="C25" s="43"/>
       <c r="D25" s="44"/>
@@ -4893,22 +5133,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="B26" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="34">
         <f>ROUND(SUMPRODUCT(Comparación_precios2[[CANTIDAD]:[CANTIDAD]],Comparación_precios2[PROVEEDOR 1]),2)</f>
-        <v>13024431</v>
+        <v>15538473</v>
       </c>
       <c r="E26" s="34">
         <f>ROUND(SUMPRODUCT(Comparación_precios2[[CANTIDAD]:[CANTIDAD]],Comparación_precios2[PROVEEDOR 2]),2)</f>
-        <v>0</v>
+        <v>17873525</v>
       </c>
       <c r="F26" s="34">
         <f>ROUND(SUMPRODUCT(Comparación_precios2[[CANTIDAD]:[CANTIDAD]],Comparación_precios2[PROVEEDOR 3]),2)</f>
-        <v>1237212</v>
+        <v>28389106</v>
       </c>
       <c r="G26" s="34">
         <f>ROUND(SUMPRODUCT(Comparación_precios2[[CANTIDAD]:[CANTIDAD]],Comparación_precios2[PROVEEDOR 4]),2)</f>
@@ -4926,7 +5166,7 @@
       <c r="K26" s="35"/>
       <c r="L26" s="36"/>
     </row>
-    <row r="27" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" s="2" customFormat="1">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -4939,7 +5179,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" s="2" customFormat="1" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" s="2" customFormat="1" ht="48.6" customHeight="1" thickBot="1">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4952,22 +5192,22 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" s="2" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="79" t="s">
+    <row r="29" spans="2:12" s="2" customFormat="1" ht="33.6" customHeight="1">
+      <c r="B29" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="80"/>
+      <c r="C29" s="88"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="2:12" s="2" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="81" t="s">
+    <row r="30" spans="2:12" s="2" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B30" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="82"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="67" t="s">
         <v>18</v>
       </c>
@@ -4987,11 +5227,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="81" t="s">
+    <row r="31" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B31" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="82"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="65">
         <v>0</v>
       </c>
@@ -5011,11 +5251,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:12" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B32" s="81" t="s">
+    <row r="32" spans="2:12" s="2" customFormat="1" ht="18.75">
+      <c r="B32" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="82"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="49"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
@@ -5023,9 +5263,9 @@
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="2:12" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="81"/>
-      <c r="C33" s="82"/>
+    <row r="33" spans="2:12" s="2" customFormat="1" ht="18.75">
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="50"/>
       <c r="E33" s="63"/>
       <c r="F33" s="63"/>
@@ -5033,9 +5273,9 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
     </row>
-    <row r="34" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="81"/>
-      <c r="C34" s="82"/>
+    <row r="34" spans="2:12" ht="18.75">
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="70" t="s">
         <v>29</v>
       </c>
@@ -5058,9 +5298,9 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="81"/>
-      <c r="C35" s="82"/>
+    <row r="35" spans="2:12" ht="22.5">
+      <c r="B35" s="89"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="68"/>
       <c r="E35" s="69"/>
       <c r="F35" s="26"/>
@@ -5071,17 +5311,17 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12">
       <c r="J36" s="3"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12">
       <c r="J37" s="3"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" ht="18.75">
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
@@ -5092,7 +5332,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" ht="18.75">
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
@@ -5100,7 +5340,7 @@
       <c r="H39" s="40"/>
       <c r="I39" s="37"/>
     </row>
-    <row r="40" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" ht="18.75">
       <c r="D40" s="37"/>
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
@@ -5108,7 +5348,7 @@
       <c r="H40" s="40"/>
       <c r="I40" s="37"/>
     </row>
-    <row r="41" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" ht="18.75">
       <c r="D41" s="37"/>
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
@@ -5116,7 +5356,7 @@
       <c r="H41" s="40"/>
       <c r="I41" s="37"/>
     </row>
-    <row r="42" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" ht="18.75">
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
@@ -5124,7 +5364,7 @@
       <c r="H42" s="40"/>
       <c r="I42" s="37"/>
     </row>
-    <row r="43" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" ht="18.75">
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5141,17 +5381,17 @@
     <mergeCell ref="B32:C35"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:C9 D26:I26">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>AND(B$26=MIN($D$26:$I$26),B$26&lt;&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:I9">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>AND(D$26=MIN($D$26:$I$26),D$26&lt;&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:I25">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="51" priority="3">
       <formula>AND(D$26=MIN($D$26:$I$26),D$26&lt;&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5166,32 +5406,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:N42"/>
+  <dimension ref="B1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.04296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.4296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.51953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.9453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.3046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="34.5546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="33.20703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.5625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.73046875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.26953125" style="1"/>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="34.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="33.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:14" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.1">
+    <row r="1" spans="2:14" ht="15" customHeight="1"/>
+    <row r="2" spans="2:14" customFormat="1" ht="54.95" customHeight="1">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -5204,15 +5444,15 @@
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
     </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:14" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" ht="15" customHeight="1"/>
+    <row r="4" spans="2:14" ht="15" customHeight="1"/>
+    <row r="5" spans="2:14" ht="29.25">
       <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="2:14" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="30" thickBot="1">
       <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
@@ -5229,14 +5469,14 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J7" s="76" t="s">
+    <row r="7" spans="2:14" ht="24.75" customHeight="1" thickBot="1">
+      <c r="J7" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="78"/>
-    </row>
-    <row r="8" spans="2:14" s="6" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="85"/>
+      <c r="L7" s="86"/>
+    </row>
+    <row r="8" spans="2:14" s="6" customFormat="1" ht="46.5" customHeight="1">
       <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
@@ -5271,761 +5511,868 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="57">
-        <f>'[1]Portatil Nosotros'!$D$8</f>
-        <v>0</v>
+    <row r="9" spans="2:14" s="7" customFormat="1" ht="18.75">
+      <c r="B9" s="57" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="32">
         <v>3</v>
       </c>
       <c r="D9" s="9">
-        <f>'[1]Monitor Nosotros'!$H$8*3</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <f>'[1]Portatil Nosotros'!$H$9*3</f>
-        <v>0</v>
+        <v>1651700</v>
+      </c>
+      <c r="E9" s="76">
+        <v>1714000</v>
       </c>
       <c r="F9" s="9">
-        <f>'[1]Monitor Nosotros'!$H$10 *3</f>
-        <v>0</v>
+        <v>1149000</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="13">
         <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>1149000</v>
       </c>
       <c r="K9" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
+        <v>1504900</v>
       </c>
       <c r="L9" s="14">
         <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="57">
-        <f>'[1]Monitor Nosotros'!$D$8</f>
-        <v>0</v>
+        <v>1714000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="7" customFormat="1" ht="18.75">
+      <c r="B10" s="57" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="32">
         <v>3</v>
       </c>
       <c r="D10" s="9">
-        <f>'[1]Monitor Nosotros'!$H$8*3</f>
-        <v>0</v>
+        <v>715300</v>
       </c>
       <c r="E10" s="9">
-        <f>'[1]Monitor Nosotros'!$H$9*3</f>
-        <v>0</v>
+        <v>542900</v>
       </c>
       <c r="F10" s="9">
-        <f>'[1]Monitor Nosotros'!$H$10 *3</f>
-        <v>0</v>
+        <v>840000</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="13">
         <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>542900</v>
       </c>
       <c r="K10" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
+        <v>699400</v>
       </c>
       <c r="L10" s="14">
         <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="57">
-        <f>'[1] Disco mecanico Nosotros'!$D$8</f>
-        <v>0</v>
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" s="7" customFormat="1" ht="37.5">
+      <c r="B11" s="57" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="32">
         <v>3</v>
       </c>
       <c r="D11" s="9">
-        <f>'[1] Disco mecanico Nosotros'!$H$8*3</f>
-        <v>0</v>
+        <v>97900</v>
       </c>
       <c r="E11" s="9">
-        <f>'[1] Disco mecanico Nosotros'!$H$9*3</f>
-        <v>0</v>
+        <v>105160</v>
       </c>
       <c r="F11" s="9">
-        <f>'[1] Disco mecanico Nosotros'!$H$10*3</f>
-        <v>0</v>
+        <v>304900</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="13">
+      <c r="J11" s="91">
         <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
+        <v>97900</v>
+      </c>
+      <c r="K11" s="92">
         <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="14">
+        <v>169320</v>
+      </c>
+      <c r="L11" s="93">
         <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="57">
-        <f>'[1] ram nosotros'!$D$8</f>
-        <v>0</v>
+        <v>304900</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" s="7" customFormat="1" ht="37.5">
+      <c r="B12" s="57" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="32">
         <v>3</v>
       </c>
       <c r="D12" s="9">
-        <f>'[1] ram nosotros'!$H$8*3</f>
-        <v>0</v>
+        <v>108000</v>
       </c>
       <c r="E12" s="9">
-        <f>'[1] ram nosotros'!$H$9*3</f>
-        <v>0</v>
+        <v>1180000</v>
       </c>
       <c r="F12" s="9">
-        <f>'[1] ram nosotros'!$H$10*3</f>
-        <v>0</v>
+        <v>220000</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="13">
+      <c r="J12" s="91">
         <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
+        <v>108000</v>
+      </c>
+      <c r="K12" s="92">
         <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="14">
+        <v>502666.66666666669</v>
+      </c>
+      <c r="L12" s="93">
         <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="57">
-        <f>'[1] Servidor Nosotros'!$D$8</f>
-        <v>0</v>
+        <v>1180000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" s="7" customFormat="1" ht="18.75">
+      <c r="B13" s="57" t="s">
+        <v>34</v>
       </c>
       <c r="C13" s="32">
         <v>3</v>
       </c>
       <c r="D13" s="9">
-        <f>'[1] Servidor Nosotros'!$H$8 *3</f>
-        <v>0</v>
+        <v>8400000</v>
       </c>
       <c r="E13" s="9">
-        <f>'[1] Servidor Nosotros'!$H$9*3</f>
-        <v>0</v>
+        <v>10384323</v>
       </c>
       <c r="F13" s="9">
-        <f>'[1] Servidor Nosotros'!$H$10*3</f>
-        <v>0</v>
+        <v>18671306</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="13">
         <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>8400000</v>
       </c>
       <c r="K13" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
+        <v>12485209.666666666</v>
       </c>
       <c r="L13" s="14">
         <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="57">
-        <f>'[1]Tarjeta de video nosotros'!$D$8</f>
-        <v>0</v>
+        <v>18671306</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" s="7" customFormat="1" ht="18.75">
+      <c r="B14" s="57" t="s">
+        <v>35</v>
       </c>
       <c r="C14" s="32">
         <v>3</v>
       </c>
       <c r="D14" s="9">
-        <f>'[1]Tarjeta de video nosotros'!$H$8*3</f>
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="E14" s="9">
-        <f>'[1]Tarjeta de video nosotros'!$H$9*3</f>
-        <v>0</v>
+        <v>164900</v>
       </c>
       <c r="F14" s="9">
-        <f>'[1]Tarjeta de video nosotros'!$H$10*3</f>
-        <v>0</v>
+        <v>125000</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="27">
         <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>125000</v>
       </c>
       <c r="K14" s="28">
         <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
+        <v>229633.33333333334</v>
       </c>
       <c r="L14" s="29">
         <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="58">
-        <f>'[1]Procesador Nosotros'!$D$8</f>
-        <v>0</v>
+        <v>399000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" s="2" customFormat="1" ht="18.75">
+      <c r="B15" s="58" t="s">
+        <v>36</v>
       </c>
       <c r="C15" s="46">
         <v>3</v>
       </c>
       <c r="D15" s="45">
-        <f>'[1]Procesador Nosotros'!$G$8*3</f>
-        <v>0</v>
+        <v>259000</v>
       </c>
       <c r="E15" s="45">
-        <f>'[1]Procesador Nosotros'!$H$9*3</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F15" s="45">
-        <f>'[1]Procesador Nosotros'!$H$10*3</f>
-        <v>0</v>
+        <v>549900</v>
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
       <c r="J15" s="27">
         <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="K15" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
+        <v>299633.33333333331</v>
       </c>
       <c r="L15" s="14">
         <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="58">
-        <f>'[1]Teclado Admin'!$D$8</f>
-        <v>0</v>
+        <v>549900</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" s="2" customFormat="1" ht="18.75">
+      <c r="B16" s="58" t="s">
+        <v>37</v>
       </c>
       <c r="C16" s="46">
         <v>3</v>
       </c>
       <c r="D16" s="45">
-        <f>'[1]Teclado nosostros '!$H$8*3</f>
-        <v>0</v>
+        <v>23800</v>
       </c>
       <c r="E16" s="45">
-        <f>'[1]Teclado nosostros '!$H$9*3</f>
-        <v>0</v>
+        <v>26350</v>
       </c>
       <c r="F16" s="45">
-        <f>'[1]Teclado nosostros '!$H$10*3</f>
-        <v>0</v>
+        <v>419000</v>
       </c>
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
       <c r="J16" s="27">
         <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>23800</v>
       </c>
       <c r="K16" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
+        <v>156383.33333333334</v>
       </c>
       <c r="L16" s="14">
         <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="58">
-        <f>'[1]Mause Admin'!$D$8</f>
-        <v>0</v>
+        <v>419000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="2" customFormat="1" ht="18.75">
+      <c r="B17" s="58" t="s">
+        <v>38</v>
       </c>
       <c r="C17" s="46">
         <v>3</v>
       </c>
       <c r="D17" s="45">
-        <f>'[1]Muse nosotros'!$H$8*3</f>
-        <v>0</v>
+        <v>2056000</v>
       </c>
       <c r="E17" s="45">
-        <f>'[1]Muse nosotros'!$H$9*3</f>
-        <v>0</v>
+        <v>1920000</v>
       </c>
       <c r="F17" s="45">
-        <f>'[1]Muse nosotros'!$H$10*3</f>
-        <v>0</v>
+        <v>11530000</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
       <c r="I17" s="45"/>
       <c r="J17" s="27">
         <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>1920000</v>
       </c>
       <c r="K17" s="28">
         <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
+        <v>5168666.666666667</v>
       </c>
       <c r="L17" s="29">
         <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="59">
-        <f>'[1]software licencia'!$D$8</f>
-        <v>0</v>
+        <v>11530000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="2" customFormat="1" ht="37.5">
+      <c r="B18" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="C18" s="43">
         <v>3</v>
       </c>
       <c r="D18" s="44">
-        <f>'[1]software licencia'!$H$8*3</f>
-        <v>0</v>
+        <v>57250</v>
       </c>
       <c r="E18" s="44">
-        <f>'[1]software licencia'!$H$9*3</f>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="F18" s="44">
-        <f>'[1]software licencia'!$H$10*3</f>
-        <v>0</v>
+        <v>985000</v>
       </c>
       <c r="G18" s="44"/>
       <c r="H18" s="42"/>
       <c r="I18" s="56"/>
       <c r="J18" s="27">
         <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>57250</v>
       </c>
       <c r="K18" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
+        <v>680750</v>
       </c>
       <c r="L18" s="14">
         <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="59">
-        <f>'[1]licencia visual'!$D$8</f>
-        <v>0</v>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="2" customFormat="1" ht="37.5">
+      <c r="B19" s="59" t="s">
+        <v>40</v>
       </c>
       <c r="C19" s="43">
         <v>3</v>
       </c>
       <c r="D19" s="44">
-        <f>'[1]licencia visual'!$H$8*3</f>
-        <v>0</v>
+        <v>58900</v>
       </c>
       <c r="E19" s="44">
-        <f>'[1]licencia visual'!$H$9*3</f>
-        <v>0</v>
+        <v>57400</v>
       </c>
       <c r="F19" s="44">
-        <f>'[1]licencia visual'!$H$10*3</f>
-        <v>0</v>
+        <v>176000</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="42"/>
       <c r="I19" s="56"/>
       <c r="J19" s="27">
         <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>57400</v>
       </c>
       <c r="K19" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
+        <v>97433.333333333328</v>
       </c>
       <c r="L19" s="14">
         <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="59">
-        <f>'[1]windows 11 licencia'!$D$8</f>
-        <v>0</v>
+        <v>176000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="2" customFormat="1" ht="18.75">
+      <c r="B20" s="59" t="s">
+        <v>41</v>
       </c>
       <c r="C20" s="43">
         <v>3</v>
       </c>
       <c r="D20" s="44">
-        <f>'[1]licencia visual'!$H$8*3</f>
-        <v>0</v>
+        <v>115000</v>
       </c>
       <c r="E20" s="44">
-        <f>'[1]licencia visual'!$H$9*3</f>
-        <v>0</v>
+        <v>50300</v>
       </c>
       <c r="F20" s="44">
-        <f>'[1]licencia visual'!$H$10*3</f>
-        <v>0</v>
+        <v>185000</v>
       </c>
       <c r="G20" s="44"/>
       <c r="H20" s="42"/>
       <c r="I20" s="56"/>
       <c r="J20" s="27">
         <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>50300</v>
       </c>
       <c r="K20" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
+        <v>116766.66666666667</v>
       </c>
       <c r="L20" s="14">
         <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="59">
-        <f>'[1]licencia SQL'!$D$8</f>
-        <v>0</v>
+        <v>185000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="2" customFormat="1" ht="37.5">
+      <c r="B21" s="59" t="s">
+        <v>42</v>
       </c>
       <c r="C21" s="43">
         <v>3</v>
       </c>
       <c r="D21" s="44">
-        <f>'[1]licencia SQL'!$H$8*3</f>
-        <v>0</v>
+        <v>17295455</v>
       </c>
       <c r="E21" s="44">
-        <f>'[1]licencia SQL'!$H$9*3</f>
-        <v>0</v>
+        <v>3850000</v>
       </c>
       <c r="F21" s="44">
-        <f>'[1]windows 11 licencia'!$H$10*3</f>
-        <v>0</v>
+        <v>1409000</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="42"/>
       <c r="I21" s="56"/>
       <c r="J21" s="27">
         <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>1409000</v>
       </c>
       <c r="K21" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
+        <v>7518151.666666667</v>
       </c>
       <c r="L21" s="14">
         <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
+        <v>17295455</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="2" customFormat="1" ht="37.5">
+      <c r="B22" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="43">
+        <v>3</v>
+      </c>
+      <c r="D22" s="44">
+        <v>85956</v>
+      </c>
+      <c r="E22" s="44">
+        <v>6328900</v>
+      </c>
+      <c r="F22" s="44">
+        <v>798000</v>
+      </c>
       <c r="G22" s="44"/>
       <c r="H22" s="42"/>
       <c r="I22" s="56"/>
       <c r="J22" s="27">
         <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>85956</v>
       </c>
       <c r="K22" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
+        <v>2404285.3333333335</v>
       </c>
       <c r="L22" s="14">
         <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
+        <v>6328900</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="2" customFormat="1" ht="37.5">
+      <c r="B23" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="43">
+        <v>3</v>
+      </c>
+      <c r="D23" s="44">
+        <v>19800</v>
+      </c>
+      <c r="E23" s="44">
+        <v>815550</v>
+      </c>
+      <c r="F23" s="44">
+        <v>710000</v>
+      </c>
       <c r="G23" s="44"/>
       <c r="H23" s="42"/>
       <c r="I23" s="56"/>
       <c r="J23" s="27">
         <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>19800</v>
       </c>
       <c r="K23" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
+        <v>515116.66666666669</v>
       </c>
       <c r="L23" s="14">
         <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="27">
+        <v>815550</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="2" customFormat="1" ht="37.5">
+      <c r="B24" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="78">
+        <v>3</v>
+      </c>
+      <c r="D24" s="77">
+        <v>372972</v>
+      </c>
+      <c r="E24" s="77">
+        <v>89900</v>
+      </c>
+      <c r="F24" s="77">
+        <v>268927</v>
+      </c>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="80">
         <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
+        <v>89900</v>
+      </c>
+      <c r="K24" s="81">
         <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="14">
+        <v>243933</v>
+      </c>
+      <c r="L24" s="82">
         <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="33" t="s">
+        <v>372972</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="2" customFormat="1" ht="18.75">
+      <c r="B25" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="78">
+        <v>3</v>
+      </c>
+      <c r="D25" s="77">
+        <v>360000</v>
+      </c>
+      <c r="E25" s="77">
+        <v>8500</v>
+      </c>
+      <c r="F25" s="77">
+        <v>2099000</v>
+      </c>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="80">
+        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
+        <v>8500</v>
+      </c>
+      <c r="K25" s="81">
+        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
+        <v>822500</v>
+      </c>
+      <c r="L25" s="82">
+        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
+        <v>2099000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="2" customFormat="1" ht="18.75">
+      <c r="B26" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="78">
+        <v>3</v>
+      </c>
+      <c r="D26" s="77">
+        <v>3990000</v>
+      </c>
+      <c r="E26" s="77">
+        <v>1545000</v>
+      </c>
+      <c r="F26" s="77">
+        <v>26700100</v>
+      </c>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="80">
+        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
+        <v>1545000</v>
+      </c>
+      <c r="K26" s="81">
+        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
+        <v>10745033.333333334</v>
+      </c>
+      <c r="L26" s="82">
+        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
+        <v>26700100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="2" customFormat="1" ht="37.5">
+      <c r="B27" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="43">
+        <v>3</v>
+      </c>
+      <c r="D27" s="44">
+        <v>43000</v>
+      </c>
+      <c r="E27" s="44">
+        <v>550000</v>
+      </c>
+      <c r="F27" s="44">
+        <v>640000</v>
+      </c>
+      <c r="G27" s="44"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="27">
+        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
+        <v>43000</v>
+      </c>
+      <c r="K27" s="8">
+        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
+        <v>411000</v>
+      </c>
+      <c r="L27" s="14">
+        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" s="2" customFormat="1" ht="18.75">
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="82"/>
+    </row>
+    <row r="29" spans="2:12" s="2" customFormat="1" ht="18.75">
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="82"/>
+    </row>
+    <row r="30" spans="2:12" s="2" customFormat="1" ht="18.75">
+      <c r="B30" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34">
+      <c r="C30" s="33"/>
+      <c r="D30" s="34">
         <f>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 1]),2)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="34">
+        <v>108327099</v>
+      </c>
+      <c r="E30" s="34">
         <f>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 2]),2)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="34">
+        <v>91269549</v>
+      </c>
+      <c r="F30" s="34">
         <f>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 3]),2)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="34">
+        <v>203340399</v>
+      </c>
+      <c r="G30" s="34">
         <f>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 4]),2)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H30" s="34">
         <f>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 5]),2)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I30" s="34">
         <f>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 6]),2)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="36"/>
-    </row>
-    <row r="26" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="2:12" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="2:12" s="2" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="79" t="s">
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
+    </row>
+    <row r="31" spans="2:12" s="2" customFormat="1" ht="12.75">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="2:12" s="2" customFormat="1" ht="15" thickBot="1">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" s="2" customFormat="1" ht="48.6" customHeight="1">
+      <c r="B33" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="2:12" s="2" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="81" t="s">
+      <c r="C33" s="88"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="2:12" s="2" customFormat="1" ht="33.6" customHeight="1">
+      <c r="B34" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="2:12" s="2" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="81" t="s">
+      <c r="C34" s="90"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+    </row>
+    <row r="35" spans="2:12" s="2" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B35" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="81" t="s">
+      <c r="C35" s="90"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B36" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-    </row>
-    <row r="32" spans="2:12" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B32" s="81"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-    </row>
-    <row r="33" spans="2:12" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="81"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-    </row>
-    <row r="34" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="81"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J35" s="3"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J36" s="3"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="37"/>
-    </row>
-    <row r="39" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="37"/>
-    </row>
-    <row r="40" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="37"/>
-    </row>
-    <row r="41" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="37"/>
-    </row>
-    <row r="42" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="C36" s="90"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="2:12" s="2" customFormat="1" ht="18.75">
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="2:12" s="2" customFormat="1" ht="18.75">
+      <c r="B38" s="89"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="2:12" ht="18.75">
+      <c r="B39" s="89"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="J40" s="3"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="J41" s="3"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="2:12" ht="18.75">
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
-      <c r="G42" s="41"/>
+      <c r="G42" s="39"/>
       <c r="H42" s="40"/>
       <c r="I42" s="37"/>
-    </row>
+      <c r="J42" s="3"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="2:12" ht="18.75">
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="37"/>
+    </row>
+    <row r="44" spans="2:12" ht="18.75">
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="37"/>
+    </row>
+    <row r="45" spans="2:12" ht="18.75">
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="37"/>
+    </row>
+    <row r="46" spans="2:12" ht="18.75">
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="37"/>
+    </row>
+    <row r="47" spans="2:12" ht="18.75">
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="37"/>
+    </row>
+    <row r="48" spans="2:12" ht="12.75"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C39"/>
   </mergeCells>
-  <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>AND(B$25=MIN($D$25:$I$25),B$25&lt;&gt;0)</formula>
+  <conditionalFormatting sqref="B8:C8 D30:I30">
+    <cfRule type="expression" dxfId="27" priority="1">
+      <formula>AND(B$30=MIN($D$30:$I$30),B$30&lt;&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:I8 D25:I25">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(D$25=MIN($D$25:$I$25),D$25&lt;&gt;0)</formula>
+  <conditionalFormatting sqref="D8:I8">
+    <cfRule type="expression" dxfId="26" priority="2">
+      <formula>AND(D$30=MIN($D$30:$I$30),D$30&lt;&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:I24">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>AND(D$25=MIN($D$25:$I$25),D$25&lt;&gt;0)</formula>
+  <conditionalFormatting sqref="D10:I27 D9 F9:I9">
+    <cfRule type="expression" dxfId="25" priority="3">
+      <formula>AND(D$30=MIN($D$30:$I$30),D$30&lt;&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6045,16 +6392,16 @@
       <selection activeCell="B28" sqref="B28:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.96484375" defaultRowHeight="10.5" x14ac:dyDescent="0.1"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="10.5"/>
   <cols>
-    <col min="2" max="2" width="19.71875" customWidth="1"/>
-    <col min="4" max="9" width="18.5390625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="4" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" ht="11.25" thickBot="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" ht="11.25" thickBot="1"/>
+    <row r="7" spans="2:9" ht="19.5" thickBot="1">
       <c r="B7" s="45" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C7" s="46">
         <v>1</v>
@@ -6078,9 +6425,9 @@
         <v>520</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="19.5" thickBot="1">
       <c r="B8" s="45" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C8" s="46">
         <v>2</v>
@@ -6104,9 +6451,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="19.5" thickBot="1">
       <c r="B9" s="45" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C9" s="46">
         <v>2</v>
@@ -6130,9 +6477,9 @@
         <v>452.4</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" ht="19.5" thickBot="1">
       <c r="B10" s="45" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C10" s="46">
         <v>1</v>
@@ -6156,9 +6503,9 @@
         <v>407.16</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" ht="19.5" thickBot="1">
       <c r="B11" s="45" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C11" s="46">
         <v>3</v>
@@ -6182,9 +6529,9 @@
         <v>366.44</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" ht="19.5" thickBot="1">
       <c r="B12" s="45" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C12" s="46">
         <v>1</v>
@@ -6208,7 +6555,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.1">
+    <row r="19" spans="2:9" ht="18.75">
       <c r="D19" s="47">
         <v>30</v>
       </c>
@@ -6228,7 +6575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="18.75" x14ac:dyDescent="0.1">
+    <row r="20" spans="2:9" ht="18.75">
       <c r="D20" s="48">
         <v>10</v>
       </c>
@@ -6239,56 +6586,56 @@
         <v>10</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="H20" s="22">
         <v>5</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="18.75" x14ac:dyDescent="0.1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="18.75">
       <c r="D21" s="49" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="18.75" x14ac:dyDescent="0.1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="18.75">
       <c r="D22" s="50" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="18.75" x14ac:dyDescent="0.1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="18.75">
       <c r="D23" s="51"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
@@ -6296,7 +6643,7 @@
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="2:9" ht="18.75" x14ac:dyDescent="0.1">
+    <row r="24" spans="2:9" ht="18.75">
       <c r="D24" s="52"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
@@ -6304,10 +6651,10 @@
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
     </row>
-    <row r="27" spans="2:9" ht="11.25" thickBot="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" ht="11.25" thickBot="1"/>
+    <row r="28" spans="2:9" ht="19.5" thickBot="1">
       <c r="B28" s="45" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C28" s="46">
         <v>1</v>
@@ -6331,9 +6678,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" ht="19.5" thickBot="1">
       <c r="B29" s="45" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C29" s="46">
         <v>1</v>
@@ -6357,9 +6704,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" ht="19.5" thickBot="1">
       <c r="B30" s="45" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C30" s="46">
         <v>2</v>
@@ -6383,37 +6730,37 @@
         <v>550</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2" ht="13.5">
       <c r="B35" s="55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="18.75" x14ac:dyDescent="0.1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="18.75">
       <c r="B36" s="53">
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="18.75" x14ac:dyDescent="0.1">
+    <row r="37" spans="2:2" ht="18.75">
       <c r="B37" s="54">
         <v>440</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="18.75" x14ac:dyDescent="0.1">
+    <row r="38" spans="2:2" ht="18.75">
       <c r="B38" s="54">
         <v>440</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="18.75" x14ac:dyDescent="0.1">
+    <row r="39" spans="2:2" ht="18.75">
       <c r="B39" s="54">
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="18.75" x14ac:dyDescent="0.1">
+    <row r="40" spans="2:2" ht="18.75">
       <c r="B40" s="54">
         <v>420</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="18.75" x14ac:dyDescent="0.1">
+    <row r="41" spans="2:2" ht="18.75">
       <c r="B41" s="54">
         <v>199</v>
       </c>
